--- a/irecodes-master/demand_damaged_t15.xlsx
+++ b/irecodes-master/demand_damaged_t15.xlsx
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.000459219614729326</v>
+        <v>0.001950925925927917</v>
       </c>
       <c r="E2">
-        <v>-0.002314814814815761</v>
+        <v>-0.002314814814817368</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0006353281174220678</v>
+        <v>0.002687500000002743</v>
       </c>
       <c r="H2">
-        <v>-0.002314814814815761</v>
+        <v>-0.002314814814817368</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.000688829407960858</v>
+        <v>0.002926388888891876</v>
       </c>
       <c r="T2">
-        <v>-0.002314814814815761</v>
+        <v>-0.002314814814817368</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002117760482734171</v>
+        <v>0.0008958333333342478</v>
       </c>
       <c r="Y2">
-        <v>-0.002314814814815761</v>
+        <v>-0.002314814814817368</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>-0.0286412430602424</v>
+        <v>-0.006013316352631411</v>
       </c>
       <c r="BB2">
-        <v>-0.02864124303871236</v>
+        <v>-0.006013316349211761</v>
       </c>
       <c r="BC2">
-        <v>-0.02864124308927904</v>
+        <v>-0.006013316357240766</v>
       </c>
       <c r="BD2">
-        <v>-0.02864124297768237</v>
+        <v>-0.006013316334984364</v>
       </c>
     </row>
   </sheetData>
